--- a/Data/District level Emission Factors Data.xlsx
+++ b/Data/District level Emission Factors Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fida paper 2\Fida Paper 2 JESS\Manuscript\Manuscript V15\Setting-up-Methane-Mitigation-Measures-for-Indian-Rice-Fields\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D2F809-FF20-4514-BDD0-35BAA4D094CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BFDF1D-4FD3-48A1-9C86-B47B1F171C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{1A28AE74-8106-4009-87E1-8DF48DFB9095}"/>
   </bookViews>
@@ -2054,7 +2054,7 @@
   <dimension ref="A1:G510"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13806,7 +13806,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A2" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
